--- a/02 - PYTHON/01 - UNDER ANALYSIS/01 - ISO 6976/ISO 06976-2016.xlsx
+++ b/02 - PYTHON/01 - UNDER ANALYSIS/01 - ISO 6976/ISO 06976-2016.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barral Pablo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barral Pablo\Documents\GitHub\Technology-of-Heat\02 - PYTHON\01 - UNDER ANALYSIS\01 - ISO 6976\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3A849-E6D8-4E22-8F65-EA43503A7130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE49CD1-5D79-4B19-9935-CEB9510049AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="85">
   <si>
     <t>methane</t>
   </si>
@@ -250,6 +250,51 @@
   </si>
   <si>
     <t>1_3-butadiene</t>
+  </si>
+  <si>
+    <t>Mj</t>
+  </si>
+  <si>
+    <t>aj</t>
+  </si>
+  <si>
+    <t>bj</t>
+  </si>
+  <si>
+    <t>cj</t>
+  </si>
+  <si>
+    <t>dj</t>
+  </si>
+  <si>
+    <t>ej</t>
+  </si>
+  <si>
+    <t>u(sj)</t>
+  </si>
+  <si>
+    <t>sj</t>
+  </si>
+  <si>
+    <t>Hc_G_0_j</t>
+  </si>
+  <si>
+    <t>u(Hc_G_0_j)</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>L_0</t>
+  </si>
+  <si>
+    <t>u(L_0)</t>
+  </si>
+  <si>
+    <t>xj</t>
   </si>
 </sst>
 </file>
@@ -285,9 +330,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,1050 +638,1165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>16.042459999999998</v>
       </c>
-      <c r="D1">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E1">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>30.069040000000001</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>44.095619999999997</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>58.122199999999999</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>58.122199999999999</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>72.148780000000002</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>72.148780000000002</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>65</v>
       </c>
-      <c r="C8">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>72.148780000000002</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>12</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>86.175359999999998</v>
       </c>
-      <c r="D9">
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>86.175359999999998</v>
       </c>
-      <c r="D10">
+      <c r="E11">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>14</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>86.175359999999998</v>
       </c>
-      <c r="D11">
+      <c r="E12">
         <v>6</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>14</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>66</v>
       </c>
-      <c r="C12">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>86.175359999999998</v>
       </c>
-      <c r="D12">
+      <c r="E13">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>14</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="C13">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>86.175359999999998</v>
       </c>
-      <c r="D13">
+      <c r="E14">
         <v>6</v>
       </c>
-      <c r="E13">
+      <c r="F14">
         <v>14</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>100.20193999999999</v>
       </c>
-      <c r="D14">
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <v>16</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>114.22852</v>
       </c>
-      <c r="D15">
+      <c r="E16">
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="F16">
         <v>18</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>128.2551</v>
       </c>
-      <c r="D16">
+      <c r="E17">
         <v>9</v>
       </c>
-      <c r="E16">
+      <c r="F17">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>142.28167999999999</v>
       </c>
-      <c r="D17">
+      <c r="E18">
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="F18">
         <v>22</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>28.053159999999998</v>
       </c>
-      <c r="D18">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>42.079740000000001</v>
       </c>
-      <c r="D19">
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="E19">
+      <c r="F20">
         <v>6</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C20">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>56.106319999999997</v>
       </c>
-      <c r="D20">
+      <c r="E21">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="F21">
         <v>8</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="C21">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>56.106319999999997</v>
       </c>
-      <c r="D21">
+      <c r="E22">
         <v>4</v>
       </c>
-      <c r="E21">
+      <c r="F22">
         <v>8</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C22">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>56.106319999999997</v>
       </c>
-      <c r="D22">
+      <c r="E23">
         <v>4</v>
       </c>
-      <c r="E22">
+      <c r="F23">
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C23">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>56.106319999999997</v>
       </c>
-      <c r="D23">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="E23">
+      <c r="F24">
         <v>8</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>70.132900000000006</v>
       </c>
-      <c r="D24">
+      <c r="E25">
         <v>5</v>
       </c>
-      <c r="E24">
+      <c r="F25">
         <v>10</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>40.063859999999998</v>
       </c>
-      <c r="D25">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="E25">
+      <c r="F26">
         <v>4</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>68</v>
       </c>
-      <c r="C26">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>54.090440000000001</v>
       </c>
-      <c r="D26">
+      <c r="E27">
         <v>4</v>
       </c>
-      <c r="E26">
+      <c r="F27">
         <v>6</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="C27">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>54.090440000000001</v>
       </c>
-      <c r="D27">
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="E27">
+      <c r="F28">
         <v>6</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>26.037279999999999</v>
       </c>
-      <c r="D28">
+      <c r="E29">
         <v>2</v>
       </c>
-      <c r="E28">
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C29">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>70.132900000000006</v>
       </c>
-      <c r="D29">
+      <c r="E30">
         <v>5</v>
       </c>
-      <c r="E29">
+      <c r="F30">
         <v>10</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C30">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>84.159480000000002</v>
       </c>
-      <c r="D30">
+      <c r="E31">
         <v>6</v>
       </c>
-      <c r="E30">
+      <c r="F31">
         <v>12</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C31">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>98.186059999999998</v>
       </c>
-      <c r="D31">
+      <c r="E32">
         <v>7</v>
       </c>
-      <c r="E31">
+      <c r="F32">
         <v>14</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
-      <c r="C32">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>84.159480000000002</v>
       </c>
-      <c r="D32">
+      <c r="E33">
         <v>6</v>
       </c>
-      <c r="E32">
+      <c r="F33">
         <v>12</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>47</v>
       </c>
-      <c r="C33">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>98.186059999999998</v>
       </c>
-      <c r="D33">
+      <c r="E34">
         <v>7</v>
       </c>
-      <c r="E33">
+      <c r="F34">
         <v>14</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="C34">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>112.21263999999999</v>
       </c>
-      <c r="D34">
+      <c r="E35">
         <v>8</v>
       </c>
-      <c r="E34">
+      <c r="F35">
         <v>16</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>49</v>
       </c>
-      <c r="C35">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>78.111840000000001</v>
       </c>
-      <c r="D35">
+      <c r="E36">
         <v>6</v>
       </c>
-      <c r="E35">
+      <c r="F36">
         <v>6</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>51</v>
       </c>
-      <c r="C36">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>92.138419999999996</v>
       </c>
-      <c r="D36">
+      <c r="E37">
         <v>7</v>
       </c>
-      <c r="E36">
+      <c r="F37">
         <v>8</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>52</v>
       </c>
-      <c r="C37">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>106.16500000000001</v>
       </c>
-      <c r="D37">
+      <c r="E38">
         <v>8</v>
       </c>
-      <c r="E37">
+      <c r="F38">
         <v>10</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>64</v>
       </c>
-      <c r="C38">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>106.16500000000001</v>
       </c>
-      <c r="D38">
+      <c r="E39">
         <v>8</v>
       </c>
-      <c r="E38">
+      <c r="F39">
         <v>10</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="C39">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>32.04186</v>
       </c>
-      <c r="D39">
+      <c r="E40">
         <v>1</v>
       </c>
-      <c r="E39">
+      <c r="F40">
         <v>4</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40">
-        <v>48.107460000000003</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1641,77 +1804,86 @@
       <c r="H40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>48.107460000000003</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>32</v>
       </c>
-      <c r="C41">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>2.0158800000000001</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>2</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>55</v>
       </c>
-      <c r="C42">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>18.015280000000001</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>2</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43">
-        <v>34.080880000000001</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1719,77 +1891,86 @@
       <c r="H43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>34.080880000000001</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>57</v>
       </c>
-      <c r="C44">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>17.030519999999999</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>3</v>
       </c>
-      <c r="F44">
+      <c r="G45">
         <v>1</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>58</v>
       </c>
-      <c r="C45">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>27.02534</v>
       </c>
-      <c r="D45">
+      <c r="E46">
         <v>1</v>
       </c>
-      <c r="E45">
+      <c r="F46">
         <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46">
-        <v>28.010100000000001</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1797,175 +1978,196 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47">
-        <v>60.075099999999999</v>
+        <v>0</v>
       </c>
       <c r="D47">
+        <v>28.010100000000001</v>
+      </c>
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>60.075099999999999</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>61</v>
       </c>
-      <c r="C48">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>76.140699999999995</v>
       </c>
-      <c r="D48">
+      <c r="E49">
         <v>1</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>40</v>
       </c>
-      <c r="C49">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
         <v>4.0026020000000004</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>42</v>
       </c>
-      <c r="C50">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
         <v>20.1797</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>44</v>
       </c>
-      <c r="C51">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
         <v>39.948</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>34</v>
       </c>
-      <c r="C52">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
         <v>28.013400000000001</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53">
-        <v>31.998799999999999</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1979,186 +2181,239 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>31.998799999999999</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>62</v>
       </c>
-      <c r="C54">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
         <v>44.009500000000003</v>
       </c>
-      <c r="D54">
+      <c r="E55">
         <v>1</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>2</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>63</v>
       </c>
-      <c r="C55">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
         <v>64.063800000000001</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>2</v>
       </c>
-      <c r="H55">
+      <c r="I56">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>18</v>
       </c>
-      <c r="C56">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
         <v>156.30825999999999</v>
       </c>
-      <c r="D56">
+      <c r="E57">
         <v>10</v>
       </c>
-      <c r="E56">
+      <c r="F57">
         <v>24</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>19</v>
       </c>
-      <c r="C57">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
         <v>170.33484000000001</v>
       </c>
-      <c r="D57">
+      <c r="E58">
         <v>10</v>
       </c>
-      <c r="E57">
+      <c r="F58">
         <v>26</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>20</v>
       </c>
-      <c r="C58">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
         <v>184.36142000000001</v>
       </c>
-      <c r="D58">
+      <c r="E59">
         <v>10</v>
       </c>
-      <c r="E58">
+      <c r="F59">
         <v>28</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>21</v>
       </c>
-      <c r="C59">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>198.38800000000001</v>
       </c>
-      <c r="D59">
+      <c r="E60">
         <v>10</v>
       </c>
-      <c r="E59">
+      <c r="F60">
         <v>30</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>22</v>
       </c>
-      <c r="C60">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
         <v>212.41458</v>
       </c>
-      <c r="D60">
+      <c r="E61">
         <v>10</v>
       </c>
-      <c r="E60">
+      <c r="F61">
         <v>32</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>0</v>
       </c>
     </row>
@@ -2169,10 +2424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A753B846-709F-48A4-B927-C2229CA1EE26}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B1:B48"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,1219 +2436,1201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>4.8860000000000001E-2</v>
-      </c>
-      <c r="D1">
-        <v>4.4519999999999997E-2</v>
-      </c>
-      <c r="E1">
-        <v>4.437E-2</v>
-      </c>
-      <c r="F1">
-        <v>4.317E-2</v>
-      </c>
-      <c r="G1">
-        <v>5.0000000000000001E-4</v>
-      </c>
+      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>9.9699999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9.1899999999999996E-2</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>9.1600000000000001E-2</v>
+        <v>15.55</v>
       </c>
       <c r="F2">
-        <v>8.9499999999999996E-2</v>
-      </c>
-      <c r="G2">
-        <v>1.1000000000000001E-3</v>
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.14649999999999999</v>
+        <v>4.8860000000000001E-2</v>
       </c>
       <c r="D3">
-        <v>0.13439999999999999</v>
+        <v>4.4519999999999997E-2</v>
       </c>
       <c r="E3">
-        <v>0.13400000000000001</v>
+        <v>4.437E-2</v>
       </c>
       <c r="F3">
-        <v>0.1308</v>
+        <v>4.317E-2</v>
       </c>
       <c r="G3">
-        <v>1.6000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.20219999999999999</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="D4">
-        <v>0.184</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="E4">
-        <v>0.18340000000000001</v>
+        <v>9.1600000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>0.17849999999999999</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="G4">
-        <v>3.8999999999999998E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1885</v>
+        <v>0.14649999999999999</v>
       </c>
       <c r="D5">
-        <v>0.17219999999999999</v>
+        <v>0.13439999999999999</v>
       </c>
       <c r="E5">
-        <v>0.17169999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="F5">
-        <v>0.1673</v>
+        <v>0.1308</v>
       </c>
       <c r="G5">
-        <v>3.0999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
       <c r="C6">
-        <v>0.2586</v>
+        <v>0.20219999999999999</v>
       </c>
       <c r="D6">
-        <v>0.2361</v>
+        <v>0.184</v>
       </c>
       <c r="E6">
-        <v>0.2354</v>
+        <v>0.18340000000000001</v>
       </c>
       <c r="F6">
-        <v>0.22950000000000001</v>
+        <v>0.17849999999999999</v>
       </c>
       <c r="G6">
-        <v>1.0699999999999999E-2</v>
+        <v>3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7">
-        <v>0.24579999999999999</v>
+        <v>0.1885</v>
       </c>
       <c r="D7">
-        <v>0.22509999999999999</v>
+        <v>0.17219999999999999</v>
       </c>
       <c r="E7">
-        <v>0.22439999999999999</v>
+        <v>0.17169999999999999</v>
       </c>
       <c r="F7">
-        <v>0.21890000000000001</v>
+        <v>0.1673</v>
       </c>
       <c r="G7">
-        <v>8.8000000000000005E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0.22450000000000001</v>
+        <v>0.2586</v>
       </c>
       <c r="D8">
-        <v>0.20399999999999999</v>
+        <v>0.2361</v>
       </c>
       <c r="E8">
-        <v>0.20330000000000001</v>
+        <v>0.2354</v>
       </c>
       <c r="F8">
-        <v>0.19789999999999999</v>
+        <v>0.22950000000000001</v>
       </c>
       <c r="G8">
-        <v>6.0000000000000001E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>0.33189999999999997</v>
+        <v>0.24579999999999999</v>
       </c>
       <c r="D9">
-        <v>0.30009999999999998</v>
+        <v>0.22509999999999999</v>
       </c>
       <c r="E9">
-        <v>0.29899999999999999</v>
+        <v>0.22439999999999999</v>
       </c>
       <c r="F9">
-        <v>0.29070000000000001</v>
+        <v>0.21890000000000001</v>
       </c>
       <c r="G9">
-        <v>2.7099999999999999E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C10">
-        <v>0.31140000000000001</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="D10">
-        <v>0.28260000000000002</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="E10">
-        <v>0.28160000000000002</v>
+        <v>0.20330000000000001</v>
       </c>
       <c r="F10">
-        <v>0.27400000000000002</v>
+        <v>0.19789999999999999</v>
       </c>
       <c r="G10">
-        <v>2.2100000000000002E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
       <c r="C11">
-        <v>0.29970000000000002</v>
+        <v>0.33189999999999997</v>
       </c>
       <c r="D11">
-        <v>0.2762</v>
+        <v>0.30009999999999998</v>
       </c>
       <c r="E11">
-        <v>0.27539999999999998</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="F11">
-        <v>0.26900000000000002</v>
+        <v>0.29070000000000001</v>
       </c>
       <c r="G11">
-        <v>2.3400000000000001E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
       <c r="C12">
-        <v>0.253</v>
+        <v>0.31140000000000001</v>
       </c>
       <c r="D12">
-        <v>0.23499999999999999</v>
+        <v>0.28260000000000002</v>
       </c>
       <c r="E12">
-        <v>0.2344</v>
+        <v>0.28160000000000002</v>
       </c>
       <c r="F12">
-        <v>0.22950000000000001</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="G12">
-        <v>1.7299999999999999E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
       <c r="C13">
-        <v>0.28360000000000002</v>
+        <v>0.29970000000000002</v>
       </c>
       <c r="D13">
-        <v>0.26319999999999999</v>
+        <v>0.2762</v>
       </c>
       <c r="E13">
-        <v>0.26250000000000001</v>
+        <v>0.27539999999999998</v>
       </c>
       <c r="F13">
-        <v>0.25690000000000002</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="G13">
-        <v>2.07E-2</v>
+        <v>2.3400000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C14">
-        <v>0.40760000000000002</v>
+        <v>0.253</v>
       </c>
       <c r="D14">
-        <v>0.36680000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E14">
-        <v>0.3654</v>
+        <v>0.2344</v>
       </c>
       <c r="F14">
-        <v>0.35470000000000002</v>
+        <v>0.22950000000000001</v>
       </c>
       <c r="G14">
-        <v>0.10009999999999999</v>
+        <v>1.7299999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C15">
-        <v>0.48449999999999999</v>
+        <v>0.28360000000000002</v>
       </c>
       <c r="D15">
-        <v>0.43459999999999999</v>
+        <v>0.26319999999999999</v>
       </c>
       <c r="E15">
-        <v>0.43290000000000001</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="F15">
-        <v>0.41980000000000001</v>
+        <v>0.25690000000000002</v>
       </c>
       <c r="G15">
-        <v>0.1002</v>
+        <v>2.07E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>0.56169999999999998</v>
+        <v>0.40760000000000002</v>
       </c>
       <c r="D16">
-        <v>0.503</v>
+        <v>0.36680000000000001</v>
       </c>
       <c r="E16">
-        <v>0.501</v>
+        <v>0.3654</v>
       </c>
       <c r="F16">
-        <v>0.48559999999999998</v>
+        <v>0.35470000000000002</v>
       </c>
       <c r="G16">
-        <v>0.10059999999999999</v>
+        <v>0.10009999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>0.67130000000000001</v>
+        <v>0.48449999999999999</v>
       </c>
       <c r="D17">
-        <v>0.59909999999999997</v>
+        <v>0.43459999999999999</v>
       </c>
       <c r="E17">
-        <v>0.59670000000000001</v>
+        <v>0.43290000000000001</v>
       </c>
       <c r="F17">
-        <v>0.57779999999999998</v>
+        <v>0.41980000000000001</v>
       </c>
       <c r="G17">
-        <v>0.10059999999999999</v>
+        <v>0.1002</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>8.6800000000000002E-2</v>
+        <v>0.56169999999999998</v>
       </c>
       <c r="D18">
-        <v>7.9899999999999999E-2</v>
+        <v>0.503</v>
       </c>
       <c r="E18">
-        <v>7.9699999999999993E-2</v>
+        <v>0.501</v>
       </c>
       <c r="F18">
-        <v>7.7799999999999994E-2</v>
+        <v>0.48559999999999998</v>
       </c>
       <c r="G18">
-        <v>1E-3</v>
+        <v>0.10059999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>0.1381</v>
+        <v>0.67130000000000001</v>
       </c>
       <c r="D19">
-        <v>0.12670000000000001</v>
+        <v>0.59909999999999997</v>
       </c>
       <c r="E19">
-        <v>0.1263</v>
+        <v>0.59670000000000001</v>
       </c>
       <c r="F19">
-        <v>0.1232</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="G19">
-        <v>1.6000000000000001E-3</v>
+        <v>0.10059999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>0.19639999999999999</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="D20">
-        <v>0.17760000000000001</v>
+        <v>7.9899999999999999E-2</v>
       </c>
       <c r="E20">
-        <v>0.17699999999999999</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="F20">
-        <v>0.1721</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="G20">
-        <v>4.1000000000000003E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.20749999999999999</v>
+        <v>0.1381</v>
       </c>
       <c r="D21">
-        <v>0.187</v>
+        <v>0.12670000000000001</v>
       </c>
       <c r="E21">
-        <v>0.18629999999999999</v>
+        <v>0.1263</v>
       </c>
       <c r="F21">
-        <v>0.18099999999999999</v>
+        <v>0.1232</v>
       </c>
       <c r="G21">
-        <v>4.4999999999999997E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>0.2072</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="D22">
-        <v>0.18679999999999999</v>
+        <v>0.17760000000000001</v>
       </c>
       <c r="E22">
-        <v>0.1862</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F22">
-        <v>0.18090000000000001</v>
+        <v>0.1721</v>
       </c>
       <c r="G22">
-        <v>4.3E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>0.1966</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="D23">
-        <v>0.1777</v>
+        <v>0.187</v>
       </c>
       <c r="E23">
-        <v>0.17699999999999999</v>
+        <v>0.18629999999999999</v>
       </c>
       <c r="F23">
-        <v>0.1721</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="G23">
-        <v>3.7000000000000002E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
       <c r="C24">
-        <v>0.26219999999999999</v>
+        <v>0.2072</v>
       </c>
       <c r="D24">
-        <v>0.22969999999999999</v>
+        <v>0.18679999999999999</v>
       </c>
       <c r="E24">
-        <v>0.22869999999999999</v>
+        <v>0.1862</v>
       </c>
       <c r="F24">
-        <v>0.2208</v>
+        <v>0.18090000000000001</v>
       </c>
       <c r="G24">
-        <v>1.0200000000000001E-2</v>
+        <v>4.3E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>0.14169999999999999</v>
+        <v>0.1966</v>
       </c>
       <c r="D25">
-        <v>0.1313</v>
+        <v>0.1777</v>
       </c>
       <c r="E25">
-        <v>0.13100000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F25">
-        <v>0.12820000000000001</v>
+        <v>0.1721</v>
       </c>
       <c r="G25">
-        <v>2.5000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>0.20630000000000001</v>
+        <v>0.26219999999999999</v>
       </c>
       <c r="D26">
-        <v>0.1862</v>
+        <v>0.22969999999999999</v>
       </c>
       <c r="E26">
-        <v>0.1855</v>
+        <v>0.22869999999999999</v>
       </c>
       <c r="F26">
-        <v>0.18029999999999999</v>
+        <v>0.2208</v>
       </c>
       <c r="G26">
-        <v>1.0999999999999999E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>0.1993</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="D27">
-        <v>0.1739</v>
+        <v>0.1313</v>
       </c>
       <c r="E27">
-        <v>0.1731</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="F27">
-        <v>0.1673</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="G27">
-        <v>3.8E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C28">
-        <v>9.3600000000000003E-2</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="D28">
-        <v>8.3599999999999994E-2</v>
+        <v>0.1862</v>
       </c>
       <c r="E28">
-        <v>8.3299999999999999E-2</v>
+        <v>0.1855</v>
       </c>
       <c r="F28">
-        <v>8.0799999999999997E-2</v>
+        <v>0.18029999999999999</v>
       </c>
       <c r="G28">
-        <v>2.3999999999999998E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C29">
-        <v>0.2409</v>
+        <v>0.1993</v>
       </c>
       <c r="D29">
-        <v>0.22209999999999999</v>
+        <v>0.1739</v>
       </c>
       <c r="E29">
-        <v>0.2215</v>
+        <v>0.1731</v>
       </c>
       <c r="F29">
-        <v>0.21640000000000001</v>
+        <v>0.1673</v>
       </c>
       <c r="G29">
-        <v>1.37E-2</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>0.28170000000000001</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="D30">
-        <v>0.26119999999999999</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E30">
-        <v>0.26050000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F30">
-        <v>0.25480000000000003</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="G30">
-        <v>2.6200000000000001E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>0.42270000000000002</v>
+        <v>0.2409</v>
       </c>
       <c r="D31">
-        <v>0.36840000000000001</v>
+        <v>0.22209999999999999</v>
       </c>
       <c r="E31">
-        <v>0.36659999999999998</v>
+        <v>0.2215</v>
       </c>
       <c r="F31">
-        <v>0.35310000000000002</v>
+        <v>0.21640000000000001</v>
       </c>
       <c r="G31">
-        <v>0.10059999999999999</v>
+        <v>1.37E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>0.29389999999999999</v>
+        <v>0.28170000000000001</v>
       </c>
       <c r="D32">
-        <v>0.26860000000000001</v>
+        <v>0.26119999999999999</v>
       </c>
       <c r="E32">
-        <v>0.26769999999999999</v>
+        <v>0.26050000000000001</v>
       </c>
       <c r="F32">
-        <v>0.26100000000000001</v>
+        <v>0.25480000000000003</v>
       </c>
       <c r="G32">
-        <v>3.2500000000000001E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>0.36670000000000003</v>
+        <v>0.42270000000000002</v>
       </c>
       <c r="D33">
-        <v>0.33169999999999999</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="E33">
-        <v>0.33050000000000002</v>
+        <v>0.36659999999999998</v>
       </c>
       <c r="F33">
-        <v>0.32129999999999997</v>
+        <v>0.35310000000000002</v>
       </c>
       <c r="G33">
-        <v>6.6799999999999998E-2</v>
+        <v>0.10059999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34">
-        <v>0.52749999999999997</v>
+        <v>0.29389999999999999</v>
       </c>
       <c r="D34">
-        <v>0.45469999999999999</v>
+        <v>0.26860000000000001</v>
       </c>
       <c r="E34">
-        <v>0.45240000000000002</v>
+        <v>0.26769999999999999</v>
       </c>
       <c r="F34">
-        <v>0.4345</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="G34">
-        <v>0.10059999999999999</v>
+        <v>3.2500000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35">
-        <v>0.2752</v>
+        <v>0.36670000000000003</v>
       </c>
       <c r="D35">
-        <v>0.25269999999999998</v>
+        <v>0.33169999999999999</v>
       </c>
       <c r="E35">
-        <v>0.252</v>
+        <v>0.33050000000000002</v>
       </c>
       <c r="F35">
-        <v>0.246</v>
+        <v>0.32129999999999997</v>
       </c>
       <c r="G35">
-        <v>2.7400000000000001E-2</v>
+        <v>6.6799999999999998E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36">
-        <v>0.37259999999999999</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="D36">
-        <v>0.33589999999999998</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="E36">
-        <v>0.3347</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="F36">
-        <v>0.3251</v>
+        <v>0.4345</v>
       </c>
       <c r="G36">
-        <v>0.1002</v>
+        <v>0.10059999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C37">
-        <v>0.41289999999999999</v>
+        <v>0.2752</v>
       </c>
       <c r="D37">
-        <v>0.37969999999999998</v>
+        <v>0.25269999999999998</v>
       </c>
       <c r="E37">
-        <v>0.3785</v>
+        <v>0.252</v>
       </c>
       <c r="F37">
-        <v>0.36940000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="G37">
-        <v>0.1002</v>
+        <v>2.7400000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C38">
-        <v>0.48520000000000002</v>
+        <v>0.37259999999999999</v>
       </c>
       <c r="D38">
-        <v>0.44109999999999999</v>
+        <v>0.33589999999999998</v>
       </c>
       <c r="E38">
-        <v>0.43959999999999999</v>
+        <v>0.3347</v>
       </c>
       <c r="F38">
-        <v>0.42770000000000002</v>
+        <v>0.3251</v>
       </c>
       <c r="G38">
-        <v>0.1004</v>
+        <v>0.1002</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39">
-        <v>0.5806</v>
+        <v>0.41289999999999999</v>
       </c>
       <c r="D39">
-        <v>0.44640000000000002</v>
+        <v>0.37969999999999998</v>
       </c>
       <c r="E39">
-        <v>0.44230000000000003</v>
+        <v>0.3785</v>
       </c>
       <c r="F39">
-        <v>0.41170000000000001</v>
+        <v>0.36940000000000001</v>
       </c>
       <c r="G39">
-        <v>2.3300000000000001E-2</v>
+        <v>0.1002</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C40">
-        <v>0.19089999999999999</v>
+        <v>0.48520000000000002</v>
       </c>
       <c r="D40">
-        <v>0.17</v>
+        <v>0.44109999999999999</v>
       </c>
       <c r="E40">
-        <v>0.16930000000000001</v>
+        <v>0.43959999999999999</v>
       </c>
       <c r="F40">
-        <v>0.16400000000000001</v>
+        <v>0.42770000000000002</v>
       </c>
       <c r="G40">
-        <v>1.17E-2</v>
+        <v>0.1004</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C41">
-        <v>-0.01</v>
+        <v>0.5806</v>
       </c>
       <c r="D41">
-        <v>-0.01</v>
+        <v>0.44640000000000002</v>
       </c>
       <c r="E41">
-        <v>-0.01</v>
+        <v>0.44230000000000003</v>
       </c>
       <c r="F41">
-        <v>-0.01</v>
+        <v>0.41170000000000001</v>
       </c>
       <c r="G41">
-        <v>2.5000000000000001E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42">
-        <v>0.30930000000000002</v>
+        <v>0.19089999999999999</v>
       </c>
       <c r="D42">
-        <v>0.25619999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="E42">
-        <v>0.25459999999999999</v>
+        <v>0.16930000000000001</v>
       </c>
       <c r="F42">
-        <v>0.2419</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="G42">
-        <v>1.4999999999999999E-2</v>
+        <v>1.17E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>0.10059999999999999</v>
+        <v>-0.01</v>
       </c>
       <c r="D43">
-        <v>9.2299999999999993E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="E43">
-        <v>9.1999999999999998E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="F43">
-        <v>8.9800000000000005E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="G43">
-        <v>2.3E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>0.123</v>
+        <v>0.30930000000000002</v>
       </c>
       <c r="D44">
-        <v>0.11</v>
+        <v>0.25619999999999998</v>
       </c>
       <c r="E44">
-        <v>0.1096</v>
+        <v>0.25459999999999999</v>
       </c>
       <c r="F44">
-        <v>0.1062</v>
+        <v>0.2419</v>
       </c>
       <c r="G44">
-        <v>2.0999999999999999E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45">
-        <v>0.3175</v>
+        <v>0.10059999999999999</v>
       </c>
       <c r="D45">
-        <v>0.27650000000000002</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="E45">
-        <v>0.27510000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F45">
-        <v>0.26440000000000002</v>
+        <v>8.9800000000000005E-2</v>
       </c>
       <c r="G45">
-        <v>7.6E-3</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46">
-        <v>2.58E-2</v>
+        <v>0.123</v>
       </c>
       <c r="D46">
-        <v>2.1700000000000001E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E46">
-        <v>2.1499999999999998E-2</v>
+        <v>0.1096</v>
       </c>
       <c r="F46">
-        <v>2.0299999999999999E-2</v>
+        <v>0.1062</v>
       </c>
       <c r="G46">
-        <v>1E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47">
-        <v>0.1211</v>
+        <v>0.3175</v>
       </c>
       <c r="D47">
-        <v>0.1114</v>
+        <v>0.27650000000000002</v>
       </c>
       <c r="E47">
-        <v>0.111</v>
+        <v>0.27510000000000001</v>
       </c>
       <c r="F47">
-        <v>0.1084</v>
+        <v>0.26440000000000002</v>
       </c>
       <c r="G47">
-        <v>5.4000000000000003E-3</v>
+        <v>7.6E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48">
-        <v>0.21820000000000001</v>
+        <v>2.58E-2</v>
       </c>
       <c r="D48">
-        <v>0.1958</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="E48">
-        <v>0.1951</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="F48">
-        <v>0.18940000000000001</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="G48">
-        <v>9.7999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C49">
-        <v>-0.01</v>
+        <v>0.1211</v>
       </c>
       <c r="D49">
-        <v>-0.01</v>
+        <v>0.1114</v>
       </c>
       <c r="E49">
-        <v>-0.01</v>
+        <v>0.111</v>
       </c>
       <c r="F49">
-        <v>-0.01</v>
+        <v>0.1084</v>
       </c>
       <c r="G49">
-        <v>2.5000000000000001E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>-0.01</v>
+        <v>0.21820000000000001</v>
       </c>
       <c r="D50">
-        <v>-0.01</v>
+        <v>0.1958</v>
       </c>
       <c r="E50">
-        <v>-0.01</v>
+        <v>0.1951</v>
       </c>
       <c r="F50">
-        <v>-0.01</v>
+        <v>0.18940000000000001</v>
       </c>
       <c r="G50">
-        <v>2.5000000000000001E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C51">
-        <v>3.0700000000000002E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="D51">
-        <v>2.7300000000000001E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="E51">
-        <v>2.7199999999999998E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="F51">
-        <v>2.6200000000000001E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="G51">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C52">
-        <v>2.1399999999999999E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="D52">
-        <v>1.7000000000000001E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="E52">
-        <v>1.6899999999999998E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="F52">
-        <v>1.5599999999999999E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="G52">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C53">
-        <v>3.1099999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="D53">
-        <v>2.76E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="E53">
-        <v>2.75E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="F53">
-        <v>2.6499999999999999E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="G53">
         <v>1E-3</v>
@@ -3401,114 +3638,114 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C54">
-        <v>8.2100000000000006E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="D54">
-        <v>7.5200000000000003E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E54">
-        <v>7.4899999999999994E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="F54">
-        <v>7.2999999999999995E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="G54">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C55">
-        <v>0.15790000000000001</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="D55">
-        <v>0.1406</v>
+        <v>2.76E-2</v>
       </c>
       <c r="E55">
-        <v>0.14000000000000001</v>
+        <v>2.75E-2</v>
       </c>
       <c r="F55">
-        <v>0.1356</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="G55">
-        <v>3.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C56">
-        <v>0.7228</v>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="D56">
-        <v>0.64019999999999999</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="E56">
-        <v>0.63739999999999997</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="F56">
-        <v>0.6159</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="G56">
-        <v>0.10059999999999999</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C57">
-        <v>0.85670000000000002</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="D57">
-        <v>0.76149999999999995</v>
+        <v>0.1406</v>
       </c>
       <c r="E57">
-        <v>0.75829999999999997</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F57">
-        <v>0.73350000000000004</v>
+        <v>0.1356</v>
       </c>
       <c r="G57">
-        <v>0.10059999999999999</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>0.91290000000000004</v>
+        <v>0.7228</v>
       </c>
       <c r="D58">
-        <v>0.80610000000000004</v>
+        <v>0.64019999999999999</v>
       </c>
       <c r="E58">
-        <v>0.80259999999999998</v>
+        <v>0.63739999999999997</v>
       </c>
       <c r="F58">
-        <v>0.77480000000000004</v>
+        <v>0.6159</v>
       </c>
       <c r="G58">
         <v>0.10059999999999999</v>
@@ -3516,22 +3753,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>1.0135000000000001</v>
+        <v>0.85670000000000002</v>
       </c>
       <c r="D59">
-        <v>0.89400000000000002</v>
+        <v>0.76149999999999995</v>
       </c>
       <c r="E59">
-        <v>0.89</v>
+        <v>0.75829999999999997</v>
       </c>
       <c r="F59">
-        <v>0.8589</v>
+        <v>0.73350000000000004</v>
       </c>
       <c r="G59">
         <v>0.10059999999999999</v>
@@ -3539,38 +3776,87 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>1.1175999999999999</v>
+        <v>0.91290000000000004</v>
       </c>
       <c r="D60">
-        <v>0.9849</v>
+        <v>0.80610000000000004</v>
       </c>
       <c r="E60">
-        <v>0.98040000000000005</v>
+        <v>0.80259999999999998</v>
       </c>
       <c r="F60">
-        <v>0.94589999999999996</v>
+        <v>0.77480000000000004</v>
       </c>
       <c r="G60">
         <v>0.10059999999999999</v>
       </c>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>1.0135000000000001</v>
+      </c>
+      <c r="D61">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E61">
+        <v>0.89</v>
+      </c>
+      <c r="F61">
+        <v>0.8589</v>
+      </c>
+      <c r="G61">
+        <v>0.10059999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>1.1175999999999999</v>
+      </c>
+      <c r="D62">
+        <v>0.9849</v>
+      </c>
+      <c r="E62">
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="F62">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="G62">
+        <v>0.10059999999999999</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793218E1-AB5D-47FB-BD89-C4D5F5F34123}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,858 +3865,838 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>892.92</v>
-      </c>
-      <c r="D1">
-        <v>891.51</v>
-      </c>
-      <c r="E1">
-        <v>891.46</v>
-      </c>
-      <c r="F1">
-        <v>891.05</v>
-      </c>
-      <c r="G1">
-        <v>890.58</v>
-      </c>
-      <c r="H1">
-        <v>0.19</v>
-      </c>
+      <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>1564.35</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1562.14</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>1562.06</v>
+        <v>15.55</v>
       </c>
       <c r="F2">
-        <v>1561.42</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>1560.69</v>
-      </c>
-      <c r="H2">
-        <v>0.51</v>
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2224.0300000000002</v>
+        <v>892.92</v>
       </c>
       <c r="D3">
-        <v>2221.1</v>
+        <v>891.51</v>
       </c>
       <c r="E3">
-        <v>2220.9899999999998</v>
+        <v>891.46</v>
       </c>
       <c r="F3">
-        <v>2220.13</v>
+        <v>891.05</v>
       </c>
       <c r="G3">
-        <v>2219.17</v>
+        <v>890.58</v>
       </c>
       <c r="H3">
-        <v>0.51</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2883.35</v>
+        <v>1564.35</v>
       </c>
       <c r="D4">
-        <v>2879.76</v>
+        <v>1562.14</v>
       </c>
       <c r="E4">
-        <v>2879.63</v>
+        <v>1562.06</v>
       </c>
       <c r="F4">
-        <v>2878.58</v>
+        <v>1561.42</v>
       </c>
       <c r="G4">
-        <v>2877.4</v>
+        <v>1560.69</v>
       </c>
       <c r="H4">
-        <v>0.72</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2874.21</v>
+        <v>2224.0300000000002</v>
       </c>
       <c r="D5">
-        <v>2870.58</v>
+        <v>2221.1</v>
       </c>
       <c r="E5">
-        <v>2870.45</v>
+        <v>2220.9899999999998</v>
       </c>
       <c r="F5">
-        <v>2869.39</v>
+        <v>2220.13</v>
       </c>
       <c r="G5">
-        <v>2868.2</v>
+        <v>2219.17</v>
       </c>
       <c r="H5">
-        <v>0.72</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
       <c r="C6">
-        <v>3542.91</v>
+        <v>2883.35</v>
       </c>
       <c r="D6">
-        <v>3538.6</v>
+        <v>2879.76</v>
       </c>
       <c r="E6">
-        <v>3538.45</v>
+        <v>2879.63</v>
       </c>
       <c r="F6">
-        <v>3537.19</v>
+        <v>2878.58</v>
       </c>
       <c r="G6">
-        <v>3535.77</v>
+        <v>2877.4</v>
       </c>
       <c r="H6">
-        <v>0.23</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7">
-        <v>3536.01</v>
+        <v>2874.21</v>
       </c>
       <c r="D7">
-        <v>3531.68</v>
+        <v>2870.58</v>
       </c>
       <c r="E7">
-        <v>3531.52</v>
+        <v>2870.45</v>
       </c>
       <c r="F7">
-        <v>3530.25</v>
+        <v>2869.39</v>
       </c>
       <c r="G7">
-        <v>3528.83</v>
+        <v>2868.2</v>
       </c>
       <c r="H7">
-        <v>0.23</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>3521.75</v>
+        <v>3542.91</v>
       </c>
       <c r="D8">
-        <v>3517.44</v>
+        <v>3538.6</v>
       </c>
       <c r="E8">
-        <v>3517.28</v>
+        <v>3538.45</v>
       </c>
       <c r="F8">
-        <v>3516.02</v>
+        <v>3537.19</v>
       </c>
       <c r="G8">
-        <v>3514.61</v>
+        <v>3535.77</v>
       </c>
       <c r="H8">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>4203.24</v>
+        <v>3536.01</v>
       </c>
       <c r="D9">
-        <v>4198.24</v>
+        <v>3531.68</v>
       </c>
       <c r="E9">
-        <v>4198.0600000000004</v>
+        <v>3531.52</v>
       </c>
       <c r="F9">
-        <v>4196.6000000000004</v>
+        <v>3530.25</v>
       </c>
       <c r="G9">
-        <v>4194.95</v>
+        <v>3528.83</v>
       </c>
       <c r="H9">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C10">
-        <v>4195.6400000000003</v>
+        <v>3521.75</v>
       </c>
       <c r="D10">
-        <v>4190.62</v>
+        <v>3517.44</v>
       </c>
       <c r="E10">
-        <v>4190.4399999999996</v>
+        <v>3517.28</v>
       </c>
       <c r="F10">
-        <v>4188.97</v>
+        <v>3516.02</v>
       </c>
       <c r="G10">
-        <v>4187.32</v>
+        <v>3514.61</v>
       </c>
       <c r="H10">
-        <v>0.53</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
       <c r="C11">
-        <v>4198.2700000000004</v>
+        <v>4203.24</v>
       </c>
       <c r="D11">
-        <v>4193.22</v>
+        <v>4198.24</v>
       </c>
       <c r="E11">
-        <v>4193.04</v>
+        <v>4198.0600000000004</v>
       </c>
       <c r="F11">
-        <v>4191.5600000000004</v>
+        <v>4196.6000000000004</v>
       </c>
       <c r="G11">
-        <v>4189.8999999999996</v>
+        <v>4194.95</v>
       </c>
       <c r="H11">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
       <c r="C12">
-        <v>4185.8599999999997</v>
+        <v>4195.6400000000003</v>
       </c>
       <c r="D12">
-        <v>4180.83</v>
+        <v>4190.62</v>
       </c>
       <c r="E12">
-        <v>4180.6499999999996</v>
+        <v>4190.4399999999996</v>
       </c>
       <c r="F12">
-        <v>4179.17</v>
+        <v>4188.97</v>
       </c>
       <c r="G12">
-        <v>4177.5200000000004</v>
+        <v>4187.32</v>
       </c>
       <c r="H12">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
       <c r="C13">
-        <v>4193.68</v>
+        <v>4198.2700000000004</v>
       </c>
       <c r="D13">
-        <v>4188.6099999999997</v>
+        <v>4193.22</v>
       </c>
       <c r="E13">
-        <v>4188.43</v>
+        <v>4193.04</v>
       </c>
       <c r="F13">
-        <v>4186.9399999999996</v>
+        <v>4191.5600000000004</v>
       </c>
       <c r="G13">
-        <v>4185.28</v>
+        <v>4189.8999999999996</v>
       </c>
       <c r="H13">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C14">
-        <v>4862.88</v>
+        <v>4185.8599999999997</v>
       </c>
       <c r="D14">
-        <v>4857.18</v>
+        <v>4180.83</v>
       </c>
       <c r="E14">
-        <v>4856.9799999999996</v>
+        <v>4180.6499999999996</v>
       </c>
       <c r="F14">
-        <v>4855.3100000000004</v>
+        <v>4179.17</v>
       </c>
       <c r="G14">
-        <v>4853.43</v>
+        <v>4177.5200000000004</v>
       </c>
       <c r="H14">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C15">
-        <v>5522.41</v>
+        <v>4193.68</v>
       </c>
       <c r="D15">
-        <v>5516.01</v>
+        <v>4188.6099999999997</v>
       </c>
       <c r="E15">
-        <v>5515.78</v>
+        <v>4188.43</v>
       </c>
       <c r="F15">
-        <v>5513.9</v>
+        <v>4186.9399999999996</v>
       </c>
       <c r="G15">
-        <v>5511.8</v>
+        <v>4185.28</v>
       </c>
       <c r="H15">
-        <v>0.76</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>6182.92</v>
+        <v>4862.88</v>
       </c>
       <c r="D16">
-        <v>6175.82</v>
+        <v>4857.18</v>
       </c>
       <c r="E16">
-        <v>6175.56</v>
+        <v>4856.9799999999996</v>
       </c>
       <c r="F16">
-        <v>6173.48</v>
+        <v>4855.3100000000004</v>
       </c>
       <c r="G16">
-        <v>6171.15</v>
+        <v>4853.43</v>
       </c>
       <c r="H16">
-        <v>0.81</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>6842.69</v>
+        <v>5522.41</v>
       </c>
       <c r="D17">
-        <v>6834.9</v>
+        <v>5516.01</v>
       </c>
       <c r="E17">
-        <v>6834.62</v>
+        <v>5515.78</v>
       </c>
       <c r="F17">
-        <v>6832.33</v>
+        <v>5513.9</v>
       </c>
       <c r="G17">
-        <v>6829.77</v>
+        <v>5511.8</v>
       </c>
       <c r="H17">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>1413.55</v>
+        <v>6182.92</v>
       </c>
       <c r="D18">
-        <v>1412.12</v>
+        <v>6175.82</v>
       </c>
       <c r="E18">
-        <v>1412.07</v>
+        <v>6175.56</v>
       </c>
       <c r="F18">
-        <v>1411.65</v>
+        <v>6173.48</v>
       </c>
       <c r="G18">
-        <v>1411.18</v>
+        <v>6171.15</v>
       </c>
       <c r="H18">
-        <v>0.21</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>2061.5700000000002</v>
+        <v>6842.69</v>
       </c>
       <c r="D19">
-        <v>2059.4299999999998</v>
+        <v>6834.9</v>
       </c>
       <c r="E19">
-        <v>2059.35</v>
+        <v>6834.62</v>
       </c>
       <c r="F19">
-        <v>2058.73</v>
+        <v>6832.33</v>
       </c>
       <c r="G19">
-        <v>2058.02</v>
+        <v>6829.77</v>
       </c>
       <c r="H19">
-        <v>0.34</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>2721.57</v>
+        <v>1413.55</v>
       </c>
       <c r="D20">
-        <v>2718.71</v>
+        <v>1412.12</v>
       </c>
       <c r="E20">
-        <v>2718.6</v>
+        <v>1412.07</v>
       </c>
       <c r="F20">
-        <v>2717.76</v>
+        <v>1411.65</v>
       </c>
       <c r="G20">
-        <v>2716.82</v>
+        <v>1411.18</v>
       </c>
       <c r="H20">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>2714.88</v>
+        <v>2061.5700000000002</v>
       </c>
       <c r="D21">
-        <v>2711.94</v>
+        <v>2059.4299999999998</v>
       </c>
       <c r="E21">
-        <v>2711.83</v>
+        <v>2059.35</v>
       </c>
       <c r="F21">
-        <v>2710.97</v>
+        <v>2058.73</v>
       </c>
       <c r="G21">
-        <v>2710</v>
+        <v>2058.02</v>
       </c>
       <c r="H21">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>2711.09</v>
+        <v>2721.57</v>
       </c>
       <c r="D22">
-        <v>2708.26</v>
+        <v>2718.71</v>
       </c>
       <c r="E22">
-        <v>2708.16</v>
+        <v>2718.6</v>
       </c>
       <c r="F22">
-        <v>2707.33</v>
+        <v>2717.76</v>
       </c>
       <c r="G22">
-        <v>2706.4</v>
+        <v>2716.82</v>
       </c>
       <c r="H22">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>2704.88</v>
+        <v>2714.88</v>
       </c>
       <c r="D23">
-        <v>2702.06</v>
+        <v>2711.94</v>
       </c>
       <c r="E23">
-        <v>2701.96</v>
+        <v>2711.83</v>
       </c>
       <c r="F23">
-        <v>2701.13</v>
+        <v>2710.97</v>
       </c>
       <c r="G23">
-        <v>2700.2</v>
+        <v>2710</v>
       </c>
       <c r="H23">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
       <c r="C24">
-        <v>3381.32</v>
+        <v>2711.09</v>
       </c>
       <c r="D24">
-        <v>3377.76</v>
+        <v>2708.26</v>
       </c>
       <c r="E24">
-        <v>3377.63</v>
+        <v>2708.16</v>
       </c>
       <c r="F24">
-        <v>3376.59</v>
+        <v>2707.33</v>
       </c>
       <c r="G24">
-        <v>3375.42</v>
+        <v>2706.4</v>
       </c>
       <c r="H24">
-        <v>0.73</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>1945.26</v>
+        <v>2704.88</v>
       </c>
       <c r="D25">
-        <v>1943.97</v>
+        <v>2702.06</v>
       </c>
       <c r="E25">
-        <v>1943.92</v>
+        <v>2701.96</v>
       </c>
       <c r="F25">
-        <v>1943.54</v>
+        <v>2701.13</v>
       </c>
       <c r="G25">
-        <v>1943.11</v>
+        <v>2700.2</v>
       </c>
       <c r="H25">
-        <v>0.6</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>2597.15</v>
+        <v>3381.32</v>
       </c>
       <c r="D26">
-        <v>2595.12</v>
+        <v>3377.76</v>
       </c>
       <c r="E26">
-        <v>2595.0500000000002</v>
+        <v>3377.63</v>
       </c>
       <c r="F26">
-        <v>2594.46</v>
+        <v>3376.59</v>
       </c>
       <c r="G26">
-        <v>2593.79</v>
+        <v>3375.42</v>
       </c>
       <c r="H26">
-        <v>0.4</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>2544.14</v>
+        <v>1945.26</v>
       </c>
       <c r="D27">
-        <v>2542.11</v>
+        <v>1943.97</v>
       </c>
       <c r="E27">
-        <v>2542.0300000000002</v>
+        <v>1943.92</v>
       </c>
       <c r="F27">
-        <v>2541.44</v>
+        <v>1943.54</v>
       </c>
       <c r="G27">
-        <v>2540.77</v>
+        <v>1943.11</v>
       </c>
       <c r="H27">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C28">
-        <v>1301.8599999999999</v>
+        <v>2597.15</v>
       </c>
       <c r="D28">
-        <v>1301.3699999999999</v>
+        <v>2595.12</v>
       </c>
       <c r="E28">
-        <v>1301.3499999999999</v>
+        <v>2595.0500000000002</v>
       </c>
       <c r="F28">
-        <v>1301.21</v>
+        <v>2594.46</v>
       </c>
       <c r="G28">
-        <v>1301.05</v>
+        <v>2593.79</v>
       </c>
       <c r="H28">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C29">
-        <v>3326.14</v>
+        <v>2544.14</v>
       </c>
       <c r="D29">
-        <v>3322.19</v>
+        <v>2542.11</v>
       </c>
       <c r="E29">
-        <v>3322.05</v>
+        <v>2542.0300000000002</v>
       </c>
       <c r="F29">
-        <v>3320.89</v>
+        <v>2541.44</v>
       </c>
       <c r="G29">
-        <v>3319.59</v>
+        <v>2540.77</v>
       </c>
       <c r="H29">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>3977.05</v>
+        <v>1301.8599999999999</v>
       </c>
       <c r="D30">
-        <v>3972.46</v>
+        <v>1301.3699999999999</v>
       </c>
       <c r="E30">
-        <v>3972.29</v>
+        <v>1301.3499999999999</v>
       </c>
       <c r="F30">
-        <v>3970.95</v>
+        <v>1301.21</v>
       </c>
       <c r="G30">
-        <v>3969.44</v>
+        <v>1301.05</v>
       </c>
       <c r="H30">
-        <v>0.56000000000000005</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31">
-        <v>4637.2</v>
+        <v>3326.14</v>
       </c>
       <c r="D31">
-        <v>4631.93</v>
+        <v>3322.19</v>
       </c>
       <c r="E31">
-        <v>4631.74</v>
+        <v>3322.05</v>
       </c>
       <c r="F31">
-        <v>4630.2</v>
+        <v>3320.89</v>
       </c>
       <c r="G31">
-        <v>4628.47</v>
+        <v>3319.59</v>
       </c>
       <c r="H31">
-        <v>0.71</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>3960.68</v>
+        <v>3977.05</v>
       </c>
       <c r="D32">
-        <v>3956.02</v>
+        <v>3972.46</v>
       </c>
       <c r="E32">
-        <v>3955.85</v>
+        <v>3972.29</v>
       </c>
       <c r="F32">
-        <v>3954.49</v>
+        <v>3970.95</v>
       </c>
       <c r="G32">
-        <v>3952.96</v>
+        <v>3969.44</v>
       </c>
       <c r="H32">
-        <v>0.32</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C33">
-        <v>4609.33</v>
+        <v>4637.2</v>
       </c>
       <c r="D33">
-        <v>4604.08</v>
+        <v>4631.93</v>
       </c>
       <c r="E33">
-        <v>4603.8900000000003</v>
+        <v>4631.74</v>
       </c>
       <c r="F33">
-        <v>4602.3599999999997</v>
+        <v>4630.2</v>
       </c>
       <c r="G33">
-        <v>4600.6400000000003</v>
+        <v>4628.47</v>
       </c>
       <c r="H33">
         <v>0.71</v>
@@ -4438,525 +4704,762 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34">
-        <v>5272.76</v>
+        <v>3960.68</v>
       </c>
       <c r="D34">
-        <v>5266.9</v>
+        <v>3956.02</v>
       </c>
       <c r="E34">
-        <v>5266.69</v>
+        <v>3955.85</v>
       </c>
       <c r="F34">
-        <v>5264.97</v>
+        <v>3954.49</v>
       </c>
       <c r="G34">
-        <v>5263.05</v>
+        <v>3952.96</v>
       </c>
       <c r="H34">
-        <v>0.95</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35">
-        <v>3305.12</v>
+        <v>4609.33</v>
       </c>
       <c r="D35">
-        <v>3302.9</v>
+        <v>4604.08</v>
       </c>
       <c r="E35">
-        <v>3302.81</v>
+        <v>4603.8900000000003</v>
       </c>
       <c r="F35">
-        <v>3302.16</v>
+        <v>4602.3599999999997</v>
       </c>
       <c r="G35">
-        <v>3301.43</v>
+        <v>4600.6400000000003</v>
       </c>
       <c r="H35">
-        <v>0.27</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36">
-        <v>3952.77</v>
+        <v>5272.76</v>
       </c>
       <c r="D36">
-        <v>3949.83</v>
+        <v>5266.9</v>
       </c>
       <c r="E36">
-        <v>3949.72</v>
+        <v>5266.69</v>
       </c>
       <c r="F36">
-        <v>3948.86</v>
+        <v>5264.97</v>
       </c>
       <c r="G36">
-        <v>3947.89</v>
+        <v>5263.05</v>
       </c>
       <c r="H36">
-        <v>0.51</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C37">
-        <v>4613.16</v>
+        <v>3305.12</v>
       </c>
       <c r="D37">
-        <v>4609.54</v>
+        <v>3302.9</v>
       </c>
       <c r="E37">
-        <v>4609.3999999999996</v>
+        <v>3302.81</v>
       </c>
       <c r="F37">
-        <v>4608.34</v>
+        <v>3302.16</v>
       </c>
       <c r="G37">
-        <v>4607.1499999999996</v>
+        <v>3301.43</v>
       </c>
       <c r="H37">
-        <v>0.66</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C38">
-        <v>4602.18</v>
+        <v>3952.77</v>
       </c>
       <c r="D38">
-        <v>4598.6400000000003</v>
+        <v>3949.83</v>
       </c>
       <c r="E38">
-        <v>4598.5200000000004</v>
+        <v>3949.72</v>
       </c>
       <c r="F38">
-        <v>4597.4799999999996</v>
+        <v>3948.86</v>
       </c>
       <c r="G38">
-        <v>4596.3100000000004</v>
+        <v>3947.89</v>
       </c>
       <c r="H38">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39">
-        <v>766.6</v>
+        <v>4613.16</v>
       </c>
       <c r="D39">
-        <v>765.09</v>
+        <v>4609.54</v>
       </c>
       <c r="E39">
-        <v>765.03</v>
+        <v>4609.3999999999996</v>
       </c>
       <c r="F39">
-        <v>764.59</v>
+        <v>4608.34</v>
       </c>
       <c r="G39">
-        <v>764.09</v>
+        <v>4607.1499999999996</v>
       </c>
       <c r="H39">
-        <v>0.13</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C40">
-        <v>1241.6400000000001</v>
+        <v>4602.18</v>
       </c>
       <c r="D40">
-        <v>1240.28</v>
+        <v>4598.6400000000003</v>
       </c>
       <c r="E40">
-        <v>1240.23</v>
+        <v>4598.5200000000004</v>
       </c>
       <c r="F40">
-        <v>1239.8399999999999</v>
+        <v>4597.4799999999996</v>
       </c>
       <c r="G40">
-        <v>1239.3900000000001</v>
+        <v>4596.3100000000004</v>
       </c>
       <c r="H40">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C41">
-        <v>286.64</v>
+        <v>766.6</v>
       </c>
       <c r="D41">
-        <v>286.14999999999998</v>
+        <v>765.09</v>
       </c>
       <c r="E41">
-        <v>286.13</v>
+        <v>765.03</v>
       </c>
       <c r="F41">
-        <v>285.99</v>
+        <v>764.59</v>
       </c>
       <c r="G41">
-        <v>285.83</v>
+        <v>764.09</v>
       </c>
       <c r="H41">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42">
-        <v>45.064</v>
+        <v>1241.6400000000001</v>
       </c>
       <c r="D42">
-        <v>44.430999999999997</v>
+        <v>1240.28</v>
       </c>
       <c r="E42">
-        <v>44.408000000000001</v>
+        <v>1240.23</v>
       </c>
       <c r="F42">
-        <v>44.222000000000001</v>
+        <v>1239.8399999999999</v>
       </c>
       <c r="G42">
-        <v>44.012999999999998</v>
+        <v>1239.3900000000001</v>
       </c>
       <c r="H42">
-        <v>4.0000000000000001E-3</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>562.92999999999995</v>
+        <v>286.64</v>
       </c>
       <c r="D43">
-        <v>562.38</v>
+        <v>286.14999999999998</v>
       </c>
       <c r="E43">
-        <v>562.36</v>
+        <v>286.13</v>
       </c>
       <c r="F43">
-        <v>562.19000000000005</v>
+        <v>285.99</v>
       </c>
       <c r="G43">
-        <v>562.01</v>
+        <v>285.83</v>
       </c>
       <c r="H43">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>384.57</v>
+        <v>45.064</v>
       </c>
       <c r="D44">
-        <v>383.51</v>
+        <v>44.430999999999997</v>
       </c>
       <c r="E44">
-        <v>383.47</v>
+        <v>44.408000000000001</v>
       </c>
       <c r="F44">
-        <v>383.16</v>
+        <v>44.222000000000001</v>
       </c>
       <c r="G44">
-        <v>382.81</v>
+        <v>44.012999999999998</v>
       </c>
       <c r="H44">
-        <v>0.18</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45">
-        <v>671.92</v>
+        <v>562.92999999999995</v>
       </c>
       <c r="D45">
-        <v>671.67</v>
+        <v>562.38</v>
       </c>
       <c r="E45">
-        <v>671.66</v>
+        <v>562.36</v>
       </c>
       <c r="F45">
-        <v>671.58</v>
+        <v>562.19000000000005</v>
       </c>
       <c r="G45">
-        <v>671.5</v>
+        <v>562.01</v>
       </c>
       <c r="H45">
-        <v>1.26</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46">
-        <v>282.8</v>
+        <v>384.57</v>
       </c>
       <c r="D46">
-        <v>282.91000000000003</v>
+        <v>383.51</v>
       </c>
       <c r="E46">
-        <v>282.91000000000003</v>
+        <v>383.47</v>
       </c>
       <c r="F46">
-        <v>282.95</v>
+        <v>383.16</v>
       </c>
       <c r="G46">
-        <v>282.98</v>
+        <v>382.81</v>
       </c>
       <c r="H46">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47">
-        <v>548.01</v>
+        <v>671.92</v>
       </c>
       <c r="D47">
-        <v>548.14</v>
+        <v>671.67</v>
       </c>
       <c r="E47">
-        <v>548.15</v>
+        <v>671.66</v>
       </c>
       <c r="F47">
-        <v>548.19000000000005</v>
+        <v>671.58</v>
       </c>
       <c r="G47">
-        <v>548.23</v>
+        <v>671.5</v>
       </c>
       <c r="H47">
-        <v>0.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48">
-        <v>1104.05</v>
+        <v>282.8</v>
       </c>
       <c r="D48">
-        <v>1104.32</v>
+        <v>282.91000000000003</v>
       </c>
       <c r="E48">
-        <v>1104.33</v>
+        <v>282.91000000000003</v>
       </c>
       <c r="F48">
-        <v>1104.4000000000001</v>
+        <v>282.95</v>
       </c>
       <c r="G48">
-        <v>1104.49</v>
+        <v>282.98</v>
       </c>
       <c r="H48">
-        <v>0.43</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C49">
-        <v>7502.22</v>
+        <v>548.01</v>
       </c>
       <c r="D49">
-        <v>7493.73</v>
+        <v>548.14</v>
       </c>
       <c r="E49">
-        <v>7493.42</v>
+        <v>548.15</v>
       </c>
       <c r="F49">
-        <v>7490.93</v>
+        <v>548.19000000000005</v>
       </c>
       <c r="G49">
-        <v>7488.14</v>
+        <v>548.23</v>
       </c>
       <c r="H49">
-        <v>1.54</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>8162.43</v>
+        <v>1104.05</v>
       </c>
       <c r="D50">
-        <v>8153.24</v>
+        <v>1104.32</v>
       </c>
       <c r="E50">
-        <v>8152.91</v>
+        <v>1104.33</v>
       </c>
       <c r="F50">
-        <v>8150.21</v>
+        <v>1104.4000000000001</v>
       </c>
       <c r="G50">
-        <v>8147.19</v>
+        <v>1104.49</v>
       </c>
       <c r="H50">
-        <v>1.1299999999999999</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C51">
-        <v>8821.8799999999992</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>8811.99</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>8811.6299999999992</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>8808.73</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>8805.48</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C52">
-        <v>9481.7099999999991</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>9471.1200000000008</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>9470.73</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>9467.6299999999992</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>9464.15</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>1.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>7502.22</v>
+      </c>
+      <c r="D58">
+        <v>7493.73</v>
+      </c>
+      <c r="E58">
+        <v>7493.42</v>
+      </c>
+      <c r="F58">
+        <v>7490.93</v>
+      </c>
+      <c r="G58">
+        <v>7488.14</v>
+      </c>
+      <c r="H58">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>8162.43</v>
+      </c>
+      <c r="D59">
+        <v>8153.24</v>
+      </c>
+      <c r="E59">
+        <v>8152.91</v>
+      </c>
+      <c r="F59">
+        <v>8150.21</v>
+      </c>
+      <c r="G59">
+        <v>8147.19</v>
+      </c>
+      <c r="H59">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>8821.8799999999992</v>
+      </c>
+      <c r="D60">
+        <v>8811.99</v>
+      </c>
+      <c r="E60">
+        <v>8811.6299999999992</v>
+      </c>
+      <c r="F60">
+        <v>8808.73</v>
+      </c>
+      <c r="G60">
+        <v>8805.48</v>
+      </c>
+      <c r="H60">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>9481.7099999999991</v>
+      </c>
+      <c r="D61">
+        <v>9471.1200000000008</v>
+      </c>
+      <c r="E61">
+        <v>9470.73</v>
+      </c>
+      <c r="F61">
+        <v>9467.6299999999992</v>
+      </c>
+      <c r="G61">
+        <v>9464.15</v>
+      </c>
+      <c r="H61">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B62" t="s">
         <v>22</v>
       </c>
-      <c r="C53">
+      <c r="C62">
         <v>10141.65</v>
       </c>
-      <c r="D53">
+      <c r="D62">
         <v>10130.23</v>
       </c>
-      <c r="E53">
+      <c r="E62">
         <v>10129.82</v>
       </c>
-      <c r="F53">
+      <c r="F62">
         <v>10126.52</v>
       </c>
-      <c r="G53">
+      <c r="G62">
         <v>10122.82</v>
       </c>
-      <c r="H53">
+      <c r="H62">
         <v>1.44</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5210,31 +5713,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A0A289-CCFD-455B-9094-D79B2CF6AB5A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>45.064</v>
-      </c>
-      <c r="C1">
-        <v>4.0000000000000001E-3</v>
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>44.430999999999997</v>
+        <v>45.064</v>
       </c>
       <c r="C2">
         <v>4.0000000000000001E-3</v>
@@ -5242,10 +5745,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>15.55</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>44.408000000000001</v>
+        <v>44.430999999999997</v>
       </c>
       <c r="C3">
         <v>4.0000000000000001E-3</v>
@@ -5253,10 +5756,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20</v>
+        <v>15.55</v>
       </c>
       <c r="B4">
-        <v>44.222000000000001</v>
+        <v>44.408000000000001</v>
       </c>
       <c r="C4">
         <v>4.0000000000000001E-3</v>
@@ -5264,12 +5767,23 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>44.222000000000001</v>
+      </c>
+      <c r="C5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>44.012999999999998</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
